--- a/yabuki-a/PM演習矢吹a/PM演習_テスト実施チェックリスト_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_テスト実施チェックリスト_矢吹研A班.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moriya\Desktop\印刷物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙_基本" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_基本!$A$1:$Q$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>内容</t>
   </si>
@@ -215,6 +217,127 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹本　篤郎様</t>
+    <rPh sb="0" eb="2">
+      <t>タケモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アツロウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日：</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢吹研A班</t>
+    <rPh sb="0" eb="2">
+      <t>ヤブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクトマネジメント演習</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（ソフトウェア開発管理コース）</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認印欄（承認日も記入）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニンイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シニアマネージャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実施チェックリスト</t>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -222,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +369,56 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="HGP創英角ｺﾞｼｯｸUB"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -255,7 +428,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -398,13 +571,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +693,132 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,9 +1100,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="8.5" style="53" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="18" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="18"/>
+    <col min="20" max="20" width="3.25" style="18" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="16">
+        <v>41835</v>
+      </c>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="30"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="30"/>
+    </row>
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="30"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="30"/>
+    </row>
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="30"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="30"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="30"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="30"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="30"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="30"/>
+    </row>
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="30"/>
+    </row>
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="30"/>
+    </row>
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="30"/>
+    </row>
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="30"/>
+    </row>
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="30"/>
+    </row>
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="30"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="30"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="30"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="30"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="30"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="30"/>
+    </row>
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="30"/>
+    </row>
+    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="K31:L36"/>
+    <mergeCell ref="M31:N36"/>
+    <mergeCell ref="O31:P36"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="E5:M7"/>
+    <mergeCell ref="D10:N12"/>
+    <mergeCell ref="E13:M17"/>
+    <mergeCell ref="F19:L26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1146,6 +2298,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>